--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -76,9 +76,6 @@
     <t>Отчество</t>
   </si>
   <si>
-    <t>Логин</t>
-  </si>
-  <si>
     <t>Пароль</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Тип оборудования</t>
+  </si>
+  <si>
+    <t>Номер</t>
   </si>
 </sst>
 </file>
@@ -234,15 +234,17 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,10 +256,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,565 +579,565 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
